--- a/docs/research/experiments.xlsx
+++ b/docs/research/experiments.xlsx
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,17 +116,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -142,16 +131,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -165,6 +144,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -280,7 +269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$54:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -319,7 +308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$11</c:f>
+              <c:f>Лист1!$B$54:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -375,7 +364,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$54:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -414,7 +403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$11</c:f>
+              <c:f>Лист1!$C$54:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -470,7 +459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$54:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -509,7 +498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$11</c:f>
+              <c:f>Лист1!$D$54:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -565,7 +554,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$54:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -604,7 +593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$11</c:f>
+              <c:f>Лист1!$E$54:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -651,11 +640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415190296"/>
-        <c:axId val="80443552"/>
+        <c:axId val="165446544"/>
+        <c:axId val="164244288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415190296"/>
+        <c:axId val="165446544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,12 +764,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80443552"/>
+        <c:crossAx val="164244288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80443552"/>
+        <c:axId val="164244288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +889,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415190296"/>
+        <c:crossAx val="165446544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1051,7 +1040,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$62:$A$73</c:f>
+              <c:f>Лист1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1096,7 +1085,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$62:$B$73</c:f>
+              <c:f>Лист1!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1158,7 +1147,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$62:$A$73</c:f>
+              <c:f>Лист1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1203,7 +1192,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$62:$C$73</c:f>
+              <c:f>Лист1!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1262,7 +1251,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$62:$A$73</c:f>
+              <c:f>Лист1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1307,7 +1296,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$62:$D$73</c:f>
+              <c:f>Лист1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1366,7 +1355,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$62:$A$73</c:f>
+              <c:f>Лист1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1411,7 +1400,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$62:$E$73</c:f>
+              <c:f>Лист1!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1457,7 +1446,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1465,11 +1453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415185200"/>
-        <c:axId val="415187160"/>
+        <c:axId val="164247032"/>
+        <c:axId val="164245856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415185200"/>
+        <c:axId val="164247032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,12 +1571,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415187160"/>
+        <c:crossAx val="164245856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415187160"/>
+        <c:axId val="164245856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1699,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415185200"/>
+        <c:crossAx val="164247032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1890,7 +1878,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$39:$A$43</c:f>
+              <c:f>Лист1!$A$29:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1914,7 +1902,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$39:$B$43</c:f>
+              <c:f>Лист1!$B$29:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1955,7 +1943,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$39:$A$43</c:f>
+              <c:f>Лист1!$A$29:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1979,7 +1967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$39:$C$43</c:f>
+              <c:f>Лист1!$C$29:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2020,7 +2008,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$39:$A$43</c:f>
+              <c:f>Лист1!$A$29:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2044,7 +2032,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$39:$D$43</c:f>
+              <c:f>Лист1!$D$29:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2085,7 +2073,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$39:$A$43</c:f>
+              <c:f>Лист1!$A$29:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2109,7 +2097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$39:$E$43</c:f>
+              <c:f>Лист1!$E$29:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2141,11 +2129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417129152"/>
-        <c:axId val="417124448"/>
+        <c:axId val="369857608"/>
+        <c:axId val="369854864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417129152"/>
+        <c:axId val="369857608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,12 +2251,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417124448"/>
+        <c:crossAx val="369854864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="417124448"/>
+        <c:axId val="369854864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2374,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417129152"/>
+        <c:crossAx val="369857608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2565,7 +2553,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$92:$A$96</c:f>
+              <c:f>Лист1!$A$79:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2589,7 +2577,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$92:$B$96</c:f>
+              <c:f>Лист1!$B$79:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2630,7 +2618,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$92:$A$96</c:f>
+              <c:f>Лист1!$A$79:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2654,7 +2642,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$92:$C$96</c:f>
+              <c:f>Лист1!$C$79:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2695,7 +2683,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$92:$A$96</c:f>
+              <c:f>Лист1!$A$79:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2719,7 +2707,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$92:$D$96</c:f>
+              <c:f>Лист1!$D$79:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2760,7 +2748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$92:$A$96</c:f>
+              <c:f>Лист1!$A$79:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2784,7 +2772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$92:$E$96</c:f>
+              <c:f>Лист1!$E$79:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2816,11 +2804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472893584"/>
-        <c:axId val="472888488"/>
+        <c:axId val="369853688"/>
+        <c:axId val="369859568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472893584"/>
+        <c:axId val="369853688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,12 +2926,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472888488"/>
+        <c:crossAx val="369859568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472888488"/>
+        <c:axId val="369859568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3049,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472893584"/>
+        <c:crossAx val="369853688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5368,15 +5356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5397,16 +5385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5428,15 +5416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5457,16 +5445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5751,10 +5739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,631 +5752,632 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>100</v>
-      </c>
-      <c r="B2" s="4">
-        <v>101097</v>
-      </c>
-      <c r="C2" s="4">
-        <v>122314</v>
-      </c>
-      <c r="D2" s="4">
-        <v>128591</v>
-      </c>
-      <c r="E2" s="4">
-        <v>97304</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <f>A2 + 100</f>
-        <v>200</v>
+      <c r="A3" s="5">
+        <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>29000</v>
+        <v>1180</v>
       </c>
       <c r="C3" s="4">
-        <v>51241</v>
+        <v>1970</v>
       </c>
       <c r="D3" s="4">
-        <v>61309</v>
+        <v>2261</v>
       </c>
       <c r="E3" s="4">
-        <v>55875</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f>A3 + 100</f>
-        <v>300</v>
+      <c r="A4" s="5">
+        <v>50</v>
       </c>
       <c r="B4" s="4">
-        <v>13300</v>
+        <v>1180</v>
       </c>
       <c r="C4" s="4">
-        <v>28645</v>
+        <v>7104</v>
       </c>
       <c r="D4" s="4">
-        <v>32142</v>
+        <v>8346</v>
       </c>
       <c r="E4" s="4">
-        <v>36109</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f>A4 + 100</f>
-        <v>400</v>
+      <c r="A5" s="5">
+        <v>70</v>
       </c>
       <c r="B5" s="4">
-        <v>7200</v>
+        <v>1180</v>
       </c>
       <c r="C5" s="4">
-        <v>22117</v>
+        <v>7376</v>
       </c>
       <c r="D5" s="4">
-        <v>27032</v>
+        <v>8360</v>
       </c>
       <c r="E5" s="4">
-        <v>23305</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>A5 + 100</f>
-        <v>500</v>
+      <c r="A6" s="5">
+        <v>90</v>
       </c>
       <c r="B6" s="4">
-        <v>4300</v>
+        <v>1180</v>
       </c>
       <c r="C6" s="4">
-        <v>18955</v>
+        <v>7591</v>
       </c>
       <c r="D6" s="4">
-        <v>23608</v>
+        <v>8490</v>
       </c>
       <c r="E6" s="4">
-        <v>16578</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f>A6 + 100</f>
-        <v>600</v>
+      <c r="A7" s="5">
+        <v>100</v>
       </c>
       <c r="B7" s="4">
-        <v>3450</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="4">
-        <v>14416</v>
+        <v>7675</v>
       </c>
       <c r="D7" s="4">
-        <v>17137</v>
+        <v>8561</v>
       </c>
       <c r="E7" s="4">
-        <v>12860</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f>A7 + 100</f>
-        <v>700</v>
+      <c r="A8" s="5">
+        <v>110</v>
       </c>
       <c r="B8" s="4">
-        <v>2470</v>
+        <v>1180</v>
       </c>
       <c r="C8" s="4">
-        <v>12820</v>
+        <v>7524</v>
       </c>
       <c r="D8" s="4">
-        <v>13920</v>
+        <v>8684</v>
       </c>
       <c r="E8" s="4">
-        <v>10304</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f>A8 + 100</f>
-        <v>800</v>
+      <c r="A9" s="5">
+        <v>150</v>
       </c>
       <c r="B9" s="4">
-        <v>1900</v>
+        <v>1180</v>
       </c>
       <c r="C9" s="4">
-        <v>10399</v>
+        <v>7508</v>
       </c>
       <c r="D9" s="4">
-        <v>11137</v>
+        <v>8588</v>
       </c>
       <c r="E9" s="4">
-        <v>8837</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f>A9 + 100</f>
-        <v>900</v>
+      <c r="A10" s="5">
+        <v>200</v>
       </c>
       <c r="B10" s="4">
-        <v>1450</v>
+        <v>1180</v>
       </c>
       <c r="C10" s="4">
-        <v>8413</v>
+        <v>7576</v>
       </c>
       <c r="D10" s="4">
-        <v>9438</v>
+        <v>8403</v>
       </c>
       <c r="E10" s="4">
-        <v>7384</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f>A10 + 100</f>
-        <v>1000</v>
+      <c r="A11" s="5">
+        <v>250</v>
       </c>
       <c r="B11" s="4">
         <v>1180</v>
       </c>
       <c r="C11" s="4">
-        <v>8049</v>
+        <v>5673</v>
       </c>
       <c r="D11" s="4">
-        <v>8229</v>
+        <v>6703</v>
       </c>
       <c r="E11" s="4">
-        <v>6533</v>
+        <v>6423</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>300</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3967</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3902</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>350</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3982</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3962</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>400</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C15" s="13">
+        <v>100</v>
+      </c>
+      <c r="D15" s="13">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B29" s="7">
         <v>654478</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C29" s="7">
         <v>529471</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D29" s="8">
         <v>545826</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E29" s="8">
         <v>522461</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>30</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B30" s="7">
         <v>444698</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C30" s="7">
         <v>346812</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D30" s="8">
         <v>353511</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E30" s="8">
         <v>345368</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>50</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B31" s="7">
         <v>272562</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C31" s="7">
         <v>211566</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D31" s="8">
         <v>211746</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E31" s="8">
         <v>219043</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>70</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B32" s="7">
         <v>171523</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C32" s="7">
         <v>141381</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D32" s="8">
         <v>147853</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E32" s="8">
         <v>143122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>100</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B33" s="4">
         <v>101097</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C33" s="4">
         <v>122314</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D33" s="9">
         <v>128591</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E33" s="9">
         <v>97304</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>100</v>
+      </c>
+      <c r="B54" s="4">
+        <v>101097</v>
+      </c>
+      <c r="C54" s="4">
+        <v>122314</v>
+      </c>
+      <c r="D54" s="4">
+        <v>128591</v>
+      </c>
+      <c r="E54" s="4">
+        <v>97304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" ref="A55:A63" si="0">A54 + 100</f>
+        <v>200</v>
+      </c>
+      <c r="B55" s="4">
+        <v>29000</v>
+      </c>
+      <c r="C55" s="4">
+        <v>51241</v>
+      </c>
+      <c r="D55" s="4">
+        <v>61309</v>
+      </c>
+      <c r="E55" s="4">
+        <v>55875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="B56" s="4">
+        <v>13300</v>
+      </c>
+      <c r="C56" s="4">
+        <v>28645</v>
+      </c>
+      <c r="D56" s="4">
+        <v>32142</v>
+      </c>
+      <c r="E56" s="4">
+        <v>36109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="B57" s="4">
+        <v>7200</v>
+      </c>
+      <c r="C57" s="4">
+        <v>22117</v>
+      </c>
+      <c r="D57" s="4">
+        <v>27032</v>
+      </c>
+      <c r="E57" s="4">
+        <v>23305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C58" s="4">
+        <v>18955</v>
+      </c>
+      <c r="D58" s="4">
+        <v>23608</v>
+      </c>
+      <c r="E58" s="4">
+        <v>16578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="B59" s="4">
+        <v>3450</v>
+      </c>
+      <c r="C59" s="4">
+        <v>14416</v>
+      </c>
+      <c r="D59" s="4">
+        <v>17137</v>
+      </c>
+      <c r="E59" s="4">
+        <v>12860</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2470</v>
+      </c>
+      <c r="C60" s="4">
+        <v>12820</v>
+      </c>
+      <c r="D60" s="4">
+        <v>13920</v>
+      </c>
+      <c r="E60" s="4">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1900</v>
+      </c>
+      <c r="C61" s="4">
+        <v>10399</v>
+      </c>
+      <c r="D61" s="4">
+        <v>11137</v>
+      </c>
+      <c r="E61" s="4">
+        <v>8837</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>4</v>
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>900</v>
       </c>
       <c r="B62" s="4">
-        <v>1180</v>
+        <v>1450</v>
       </c>
       <c r="C62" s="4">
-        <v>1970</v>
+        <v>8413</v>
       </c>
       <c r="D62" s="4">
-        <v>2261</v>
+        <v>9438</v>
       </c>
       <c r="E62" s="4">
-        <v>1635</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>50</v>
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="B63" s="4">
         <v>1180</v>
       </c>
       <c r="C63" s="4">
-        <v>7104</v>
+        <v>8049</v>
       </c>
       <c r="D63" s="4">
-        <v>8346</v>
+        <v>8229</v>
       </c>
       <c r="E63" s="4">
-        <v>6231</v>
+        <v>6533</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>70</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C64" s="4">
-        <v>7376</v>
-      </c>
-      <c r="D64" s="4">
-        <v>8360</v>
-      </c>
-      <c r="E64" s="4">
-        <v>6390</v>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>90</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C65" s="4">
-        <v>7591</v>
-      </c>
-      <c r="D65" s="4">
-        <v>8490</v>
-      </c>
-      <c r="E65" s="4">
-        <v>6380</v>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B79" s="9">
+        <v>1012</v>
+      </c>
+      <c r="C79" s="9">
+        <v>7558</v>
+      </c>
+      <c r="D79" s="9">
+        <v>7773</v>
+      </c>
+      <c r="E79" s="9">
+        <v>6447</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>100</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C66" s="4">
-        <v>7675</v>
-      </c>
-      <c r="D66" s="4">
-        <v>8561</v>
-      </c>
-      <c r="E66" s="4">
-        <v>6394</v>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B80" s="10">
+        <v>39</v>
+      </c>
+      <c r="C80" s="10">
+        <v>992</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1049</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>110</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C67" s="4">
-        <v>7524</v>
-      </c>
-      <c r="D67" s="4">
-        <v>8684</v>
-      </c>
-      <c r="E67" s="4">
-        <v>6474</v>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B81" s="10">
+        <v>9</v>
+      </c>
+      <c r="C81" s="10">
+        <v>451</v>
+      </c>
+      <c r="D81" s="10">
+        <v>538</v>
+      </c>
+      <c r="E81" s="10">
+        <v>365</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>150</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C68" s="4">
-        <v>7508</v>
-      </c>
-      <c r="D68" s="4">
-        <v>8588</v>
-      </c>
-      <c r="E68" s="4">
-        <v>6039</v>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B82" s="10">
+        <v>2</v>
+      </c>
+      <c r="C82" s="10">
+        <v>175</v>
+      </c>
+      <c r="D82" s="10">
+        <v>172</v>
+      </c>
+      <c r="E82" s="10">
+        <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>200</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C69" s="4">
-        <v>7576</v>
-      </c>
-      <c r="D69" s="4">
-        <v>8403</v>
-      </c>
-      <c r="E69" s="4">
-        <v>6438</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>250</v>
-      </c>
-      <c r="B70" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C70" s="4">
-        <v>5673</v>
-      </c>
-      <c r="D70" s="4">
-        <v>6703</v>
-      </c>
-      <c r="E70" s="4">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>300</v>
-      </c>
-      <c r="B71" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C71" s="4">
-        <v>3967</v>
-      </c>
-      <c r="D71" s="4">
-        <v>3902</v>
-      </c>
-      <c r="E71" s="4">
-        <v>6441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>350</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C72" s="4">
-        <v>3982</v>
-      </c>
-      <c r="D72" s="4">
-        <v>3962</v>
-      </c>
-      <c r="E72" s="4">
-        <v>5997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>400</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1180</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4">
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="9">
-        <v>0</v>
-      </c>
-      <c r="C74" s="8">
-        <v>100</v>
-      </c>
-      <c r="D74" s="8">
-        <v>100</v>
-      </c>
-      <c r="E74" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B92" s="13">
-        <v>1012</v>
-      </c>
-      <c r="C92" s="13">
-        <v>7558</v>
-      </c>
-      <c r="D92" s="13">
-        <v>7773</v>
-      </c>
-      <c r="E92" s="13">
-        <v>6447</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>5000</v>
-      </c>
-      <c r="B93" s="14">
-        <v>39</v>
-      </c>
-      <c r="C93" s="14">
-        <v>992</v>
-      </c>
-      <c r="D93" s="14">
-        <v>1069</v>
-      </c>
-      <c r="E93" s="14">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B94" s="14">
-        <v>9</v>
-      </c>
-      <c r="C94" s="14">
-        <v>451</v>
-      </c>
-      <c r="D94" s="14">
-        <v>538</v>
-      </c>
-      <c r="E94" s="14">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B95" s="14">
-        <v>2</v>
-      </c>
-      <c r="C95" s="14">
-        <v>175</v>
-      </c>
-      <c r="D95" s="14">
-        <v>172</v>
-      </c>
-      <c r="E95" s="14">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>30000</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C83" s="10">
         <v>141</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D83" s="10">
         <v>155</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E83" s="10">
         <v>112</v>
       </c>
     </row>

--- a/docs/research/experiments.xlsx
+++ b/docs/research/experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Полный перебор</t>
   </si>
@@ -46,6 +46,9 @@
   <si>
     <t>0.3</t>
   </si>
+  <si>
+    <t>Бинарное дерево</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,13 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,6 +641,101 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$54:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$54:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>106847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -640,11 +744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165446544"/>
-        <c:axId val="164244288"/>
+        <c:axId val="208503632"/>
+        <c:axId val="210800312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165446544"/>
+        <c:axId val="208503632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,12 +868,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164244288"/>
+        <c:crossAx val="210800312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164244288"/>
+        <c:axId val="210800312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +993,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165446544"/>
+        <c:crossAx val="208503632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,6 +1549,113 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1453,11 +1664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164247032"/>
-        <c:axId val="164245856"/>
+        <c:axId val="210760224"/>
+        <c:axId val="210759832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164247032"/>
+        <c:axId val="210760224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,12 +1782,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164245856"/>
+        <c:crossAx val="210759832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164245856"/>
+        <c:axId val="210759832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1910,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164247032"/>
+        <c:crossAx val="210760224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2121,6 +2332,71 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$29:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>516478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2129,11 +2405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369857608"/>
-        <c:axId val="369854864"/>
+        <c:axId val="210759048"/>
+        <c:axId val="211334104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369857608"/>
+        <c:axId val="210759048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,12 +2527,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369854864"/>
+        <c:crossAx val="211334104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369854864"/>
+        <c:axId val="211334104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2650,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369857608"/>
+        <c:crossAx val="210759048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2796,6 +3072,71 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$79:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$79:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2804,11 +3145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369853688"/>
-        <c:axId val="369859568"/>
+        <c:axId val="211329792"/>
+        <c:axId val="211332536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369853688"/>
+        <c:axId val="211329792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,12 +3267,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369859568"/>
+        <c:crossAx val="211332536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369859568"/>
+        <c:axId val="211332536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3390,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369853688"/>
+        <c:crossAx val="211329792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5739,10 +6080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,10 +6091,11 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -5769,8 +6111,11 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -5786,8 +6131,11 @@
       <c r="E3" s="4">
         <v>1635</v>
       </c>
+      <c r="F3" s="4">
+        <v>2204</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>50</v>
       </c>
@@ -5803,8 +6151,11 @@
       <c r="E4" s="4">
         <v>6231</v>
       </c>
+      <c r="F4" s="4">
+        <v>6578</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>70</v>
       </c>
@@ -5820,8 +6171,11 @@
       <c r="E5" s="4">
         <v>6390</v>
       </c>
+      <c r="F5" s="4">
+        <v>7189</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>90</v>
       </c>
@@ -5837,8 +6191,11 @@
       <c r="E6" s="4">
         <v>6380</v>
       </c>
+      <c r="F6" s="4">
+        <v>6708</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>100</v>
       </c>
@@ -5854,8 +6211,11 @@
       <c r="E7" s="4">
         <v>6394</v>
       </c>
+      <c r="F7" s="4">
+        <v>6935</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>110</v>
       </c>
@@ -5871,8 +6231,11 @@
       <c r="E8" s="4">
         <v>6474</v>
       </c>
+      <c r="F8" s="4">
+        <v>6850</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>150</v>
       </c>
@@ -5888,8 +6251,11 @@
       <c r="E9" s="4">
         <v>6039</v>
       </c>
+      <c r="F9" s="4">
+        <v>6062</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>200</v>
       </c>
@@ -5905,8 +6271,11 @@
       <c r="E10" s="4">
         <v>6438</v>
       </c>
+      <c r="F10" s="4">
+        <v>6027</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>250</v>
       </c>
@@ -5922,8 +6291,11 @@
       <c r="E11" s="4">
         <v>6423</v>
       </c>
+      <c r="F11" s="4">
+        <v>4266</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>300</v>
       </c>
@@ -5939,8 +6311,11 @@
       <c r="E12" s="4">
         <v>6441</v>
       </c>
+      <c r="F12" s="4">
+        <v>3627</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>350</v>
       </c>
@@ -5956,8 +6331,11 @@
       <c r="E13" s="4">
         <v>5997</v>
       </c>
+      <c r="F13" s="4">
+        <v>3670</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>400</v>
       </c>
@@ -5969,8 +6347,11 @@
       <c r="E14" s="4">
         <v>5920</v>
       </c>
+      <c r="F14" s="4">
+        <v>3763</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
@@ -5986,8 +6367,11 @@
       <c r="E15" s="14">
         <v>100</v>
       </c>
+      <c r="F15" s="14">
+        <v>70</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -6000,8 +6384,11 @@
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>10</v>
       </c>
@@ -6017,8 +6404,11 @@
       <c r="E29" s="8">
         <v>522461</v>
       </c>
+      <c r="F29" s="4">
+        <v>516478</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -6034,8 +6424,11 @@
       <c r="E30" s="8">
         <v>345368</v>
       </c>
+      <c r="F30" s="4">
+        <v>340226</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>50</v>
       </c>
@@ -6051,8 +6444,11 @@
       <c r="E31" s="8">
         <v>219043</v>
       </c>
+      <c r="F31" s="4">
+        <v>229067</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>70</v>
       </c>
@@ -6068,8 +6464,11 @@
       <c r="E32" s="8">
         <v>143122</v>
       </c>
+      <c r="F32" s="4">
+        <v>149289</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>100</v>
       </c>
@@ -6085,8 +6484,11 @@
       <c r="E33" s="9">
         <v>97304</v>
       </c>
+      <c r="F33" s="4">
+        <v>106847</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
@@ -6099,8 +6501,11 @@
       <c r="E53" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>100</v>
       </c>
@@ -6116,8 +6521,11 @@
       <c r="E54" s="4">
         <v>97304</v>
       </c>
+      <c r="F54" s="4">
+        <v>106847</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f t="shared" ref="A55:A63" si="0">A54 + 100</f>
         <v>200</v>
@@ -6134,8 +6542,11 @@
       <c r="E55" s="4">
         <v>55875</v>
       </c>
+      <c r="F55" s="4">
+        <v>53775</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -6152,8 +6563,11 @@
       <c r="E56" s="4">
         <v>36109</v>
       </c>
+      <c r="F56" s="4">
+        <v>32047</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -6170,8 +6584,11 @@
       <c r="E57" s="4">
         <v>23305</v>
       </c>
+      <c r="F57" s="4">
+        <v>21189</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -6188,8 +6605,11 @@
       <c r="E58" s="4">
         <v>16578</v>
       </c>
+      <c r="F58" s="4">
+        <v>15588</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -6206,8 +6626,11 @@
       <c r="E59" s="4">
         <v>12860</v>
       </c>
+      <c r="F59" s="4">
+        <v>12935</v>
+      </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -6224,8 +6647,11 @@
       <c r="E60" s="4">
         <v>10304</v>
       </c>
+      <c r="F60" s="4">
+        <v>10925</v>
+      </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -6242,8 +6668,11 @@
       <c r="E61" s="4">
         <v>8837</v>
       </c>
+      <c r="F61" s="4">
+        <v>8750</v>
+      </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -6260,8 +6689,11 @@
       <c r="E62" s="4">
         <v>7384</v>
       </c>
+      <c r="F62" s="4">
+        <v>7775</v>
+      </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6278,8 +6710,11 @@
       <c r="E63" s="4">
         <v>6533</v>
       </c>
+      <c r="F63" s="4">
+        <v>6589</v>
+      </c>
     </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
@@ -6295,8 +6730,11 @@
       <c r="E78" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1000</v>
       </c>
@@ -6312,8 +6750,11 @@
       <c r="E79" s="9">
         <v>6447</v>
       </c>
+      <c r="F79" s="4">
+        <v>6589</v>
+      </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>5000</v>
       </c>
@@ -6329,8 +6770,11 @@
       <c r="E80" s="10">
         <v>1049</v>
       </c>
+      <c r="F80" s="4">
+        <v>970</v>
+      </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>10000</v>
       </c>
@@ -6346,8 +6790,11 @@
       <c r="E81" s="10">
         <v>365</v>
       </c>
+      <c r="F81" s="4">
+        <v>405</v>
+      </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>20000</v>
       </c>
@@ -6363,8 +6810,11 @@
       <c r="E82" s="10">
         <v>152</v>
       </c>
+      <c r="F82" s="4">
+        <v>139</v>
+      </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>30000</v>
       </c>
@@ -6379,6 +6829,9 @@
       </c>
       <c r="E83" s="10">
         <v>112</v>
+      </c>
+      <c r="F83" s="4">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/docs/research/experiments.xlsx
+++ b/docs/research/experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Полный перебор</t>
   </si>
@@ -49,6 +49,12 @@
   <si>
     <t>Бинарное дерево</t>
   </si>
+  <si>
+    <t>Бинарное дерево - распараллеленное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep &lt; </t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,11 +137,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,6 +188,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,11 +780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208503632"/>
-        <c:axId val="210800312"/>
+        <c:axId val="178022640"/>
+        <c:axId val="178017936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208503632"/>
+        <c:axId val="178022640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,12 +904,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210800312"/>
+        <c:crossAx val="178017936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210800312"/>
+        <c:axId val="178017936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1029,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208503632"/>
+        <c:crossAx val="178022640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1664,11 +1700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210760224"/>
-        <c:axId val="210759832"/>
+        <c:axId val="178021072"/>
+        <c:axId val="178021856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210760224"/>
+        <c:axId val="178021072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,12 +1818,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210759832"/>
+        <c:crossAx val="178021856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210759832"/>
+        <c:axId val="178021856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1946,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210760224"/>
+        <c:crossAx val="178021072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2405,11 +2441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210759048"/>
-        <c:axId val="211334104"/>
+        <c:axId val="178022248"/>
+        <c:axId val="453891504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210759048"/>
+        <c:axId val="178022248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,12 +2563,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211334104"/>
+        <c:crossAx val="453891504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211334104"/>
+        <c:axId val="453891504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,7 +2686,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210759048"/>
+        <c:crossAx val="178022248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3145,11 +3181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211329792"/>
-        <c:axId val="211332536"/>
+        <c:axId val="453891896"/>
+        <c:axId val="453891112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211329792"/>
+        <c:axId val="453891896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,12 +3303,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211332536"/>
+        <c:crossAx val="453891112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211332536"/>
+        <c:axId val="453891112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3426,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211329792"/>
+        <c:crossAx val="453891896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3467,6 +3503,934 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от глубины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$107:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$107:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455897016"/>
+        <c:axId val="455895056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455897016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Глубина</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455895056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455895056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество кадров в секунду</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455897016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$90:$A$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$90:$B$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488153576"/>
+        <c:axId val="488156712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488153576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ЧИСЛО ЧАСТИЦ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488156712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488156712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО КАДРОВ В СЕКУНДУ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488153576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3631,6 +4595,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
@@ -5177,6 +6221,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5814,6 +7890,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6080,10 +8216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,7 +8850,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
@@ -6734,7 +8870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1000</v>
       </c>
@@ -6750,11 +8886,12 @@
       <c r="E79" s="9">
         <v>6447</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="19">
         <v>6589</v>
       </c>
+      <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>5000</v>
       </c>
@@ -6770,11 +8907,12 @@
       <c r="E80" s="10">
         <v>1049</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="19">
         <v>970</v>
       </c>
+      <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>10000</v>
       </c>
@@ -6790,11 +8928,12 @@
       <c r="E81" s="10">
         <v>365</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="19">
         <v>405</v>
       </c>
+      <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>20000</v>
       </c>
@@ -6810,11 +8949,12 @@
       <c r="E82" s="10">
         <v>152</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="19">
         <v>139</v>
       </c>
+      <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>30000</v>
       </c>
@@ -6830,9 +8970,159 @@
       <c r="E83" s="10">
         <v>112</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="19">
         <v>102</v>
       </c>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B90" s="9">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B91" s="9">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B92" s="9">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B93" s="9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B94" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>2</v>
+      </c>
+      <c r="B107" s="9">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>3</v>
+      </c>
+      <c r="B108" s="9">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>4</v>
+      </c>
+      <c r="B109" s="9">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>5</v>
+      </c>
+      <c r="B110" s="9">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>6</v>
+      </c>
+      <c r="B111" s="9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>7</v>
+      </c>
+      <c r="B112" s="9">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>8</v>
+      </c>
+      <c r="B113" s="9">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>9</v>
+      </c>
+      <c r="B114" s="16">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="15"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="15"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="15"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="15"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="15"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="15"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/research/experiments.xlsx
+++ b/docs/research/experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Полный перебор</t>
   </si>
@@ -53,16 +53,55 @@
     <t>Бинарное дерево - распараллеленное</t>
   </si>
   <si>
-    <t xml:space="preserve">deep &lt; </t>
+    <t>РАСПАРАЛЛЕЛЕННЫЕ АЛГОРИТМЫ</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>Выбор числа частиц, при котором происходит деление пространства на прямоугольники</t>
+  </si>
+  <si>
+    <t>Зависимость количества кадров в секунду от количества частиц (от 10 до 100)</t>
+  </si>
+  <si>
+    <t>Зависимость количества кадров в секунду от количества частиц (от 100 до 1000)</t>
+  </si>
+  <si>
+    <t>Зависимость количества кадров в секунду от количества частиц                           (от 1000 до 30 000)</t>
+  </si>
+  <si>
+    <t>Выявление наиболее оптимальной глубины, на которой создаются потоки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -150,11 +189,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,14 +366,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -255,7 +519,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> 100 ДО 1000 ШАРИКОВ</a:t>
+              <a:t> 100 ДО 1000 ЧАСТИЦ</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -300,6 +564,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
@@ -395,6 +670,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -490,6 +776,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -585,6 +882,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -680,6 +988,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -780,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178022640"/>
-        <c:axId val="178017936"/>
+        <c:axId val="203626472"/>
+        <c:axId val="203627888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178022640"/>
+        <c:axId val="203626472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,12 +1223,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178017936"/>
+        <c:crossAx val="203627888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178017936"/>
+        <c:axId val="203627888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1348,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178022640"/>
+        <c:crossAx val="203626472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1048,9 +1367,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1127,7 +1444,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> количества кадров в секунду от количества частиц, при котором происходит деление пространства</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38646120082201352"/>
+          <c:y val="2.0136639215300765E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1166,6 +1520,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1273,6 +1638,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1377,6 +1753,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1481,6 +1868,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1588,6 +1986,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1700,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178021072"/>
-        <c:axId val="178021856"/>
+        <c:axId val="203947696"/>
+        <c:axId val="203945736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178021072"/>
+        <c:axId val="203947696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +2153,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО ЧАСТИЦ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
                   <a:t>n</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
@@ -1818,12 +2235,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178021856"/>
+        <c:crossAx val="203945736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178021856"/>
+        <c:axId val="203945736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,12 +2280,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Количество</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> кадров в секунду</a:t>
+                  <a:t>КОЛИЧЕСТВО КАДРОВ В СЕКУНДУ</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -1946,7 +2359,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178021072"/>
+        <c:crossAx val="203947696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2066,7 +2479,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> 10 ДО 100 ШАРИКОВ</a:t>
+              <a:t> 10 ДО 100 ЧАСТИЦ</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2111,6 +2524,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2176,6 +2600,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2241,6 +2676,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2306,6 +2752,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2371,6 +2828,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2441,11 +2909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178022248"/>
-        <c:axId val="453891504"/>
+        <c:axId val="203944560"/>
+        <c:axId val="203944952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178022248"/>
+        <c:axId val="203944560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,12 +3031,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453891504"/>
+        <c:crossAx val="203944952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453891504"/>
+        <c:axId val="203944952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +3154,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178022248"/>
+        <c:crossAx val="203944560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2806,7 +3274,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> 1 000 ДО 30 000 ШАРИКОВ</a:t>
+              <a:t> 1 000 ДО 30 000 ЧАСТИЦ</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2851,6 +3319,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2916,6 +3395,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2981,6 +3471,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3046,6 +3547,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3111,6 +3623,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3181,11 +3704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453891896"/>
-        <c:axId val="453891112"/>
+        <c:axId val="203946128"/>
+        <c:axId val="203946912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453891896"/>
+        <c:axId val="203946128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,12 +3826,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453891112"/>
+        <c:crossAx val="203946912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453891112"/>
+        <c:axId val="203946912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3949,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453891896"/>
+        <c:crossAx val="203946128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3638,33 +4161,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$107:$B$114</c:f>
+              <c:f>Лист1!$D$107:$D$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>558</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>536</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>541</c:v>
+                  <c:v>1179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>568</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>563</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>568</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>573</c:v>
+                  <c:v>1196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>541</c:v>
+                  <c:v>1327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,11 +4202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455897016"/>
-        <c:axId val="455895056"/>
+        <c:axId val="204453200"/>
+        <c:axId val="204453592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455897016"/>
+        <c:axId val="204453200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,12 +4319,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455895056"/>
+        <c:crossAx val="204453592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455895056"/>
+        <c:axId val="204453592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3914,7 +4437,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455897016"/>
+        <c:crossAx val="204453200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4010,6 +4533,103 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ОТ 1 000 ДО 30 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>000 ЧАСТИЦ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(РАСПАРАЛЛЕЛЕННЫЕ АЛГОРИТМЫ)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4023,13 +4643,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4047,8 +4681,407 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$91:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$91:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$91:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$91:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$91:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4063,7 +5096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$90:$A$94</c:f>
+              <c:f>Лист1!$A$91:$A$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4087,24 +5120,328 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$90:$B$94</c:f>
+              <c:f>Лист1!$B$91:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5688</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1231</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>571</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$91:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$91:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$91:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$91:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,11 +5456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488153576"/>
-        <c:axId val="488156712"/>
+        <c:axId val="393573688"/>
+        <c:axId val="393574080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488153576"/>
+        <c:axId val="393573688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4236,14 +5573,837 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488156712"/>
+        <c:crossAx val="393574080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488156712"/>
+        <c:axId val="393574080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> КАДРОВ В СЕКУНДУ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393573688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ОТ 1 000 ДО 30 000 ЧАСТИЦ (РАСПАРАЛЛЕЛЕННЫЕ АЛГОРИТМЫ) - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200"/>
+              <a:t>в</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+              <a:t> масштабе, соизмеримом с тем, который используется с нераспараллеленными алгоритмами</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Полный перебор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$91:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$91:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с динамическим центром</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$91:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дерево с 9 узлами</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$91:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинарное дерево</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$91:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$91:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396805064"/>
+        <c:axId val="495114040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396805064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ЧИСЛО</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ЧАСТИЦ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495114040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495114040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9000"/>
+          <c:min val="-1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4354,7 +6514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488153576"/>
+        <c:crossAx val="396805064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4675,6 +6835,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
@@ -7253,6 +9453,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7773,13 +10489,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -7808,8 +10524,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
@@ -7838,8 +10554,8 @@
       <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -7863,13 +10579,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>9523</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -7922,20 +10638,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>7790</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>173614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>149802</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7945,6 +10661,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>165386</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>20347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>6060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8216,10 +10962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8230,24 +10976,33 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+    </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8507,20 +11262,31 @@
         <v>70</v>
       </c>
     </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+    </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8623,6 +11389,17 @@
       <c r="F33" s="4">
         <v>106847</v>
       </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -8850,6 +11627,25 @@
         <v>6589</v>
       </c>
     </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="39"/>
+    </row>
     <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>4</v>
@@ -8886,7 +11682,7 @@
       <c r="E79" s="9">
         <v>6447</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="4">
         <v>6589</v>
       </c>
       <c r="G79" s="15"/>
@@ -8907,7 +11703,7 @@
       <c r="E80" s="10">
         <v>1049</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="4">
         <v>970</v>
       </c>
       <c r="G80" s="15"/>
@@ -8928,7 +11724,7 @@
       <c r="E81" s="10">
         <v>365</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="4">
         <v>405</v>
       </c>
       <c r="G81" s="15"/>
@@ -8949,7 +11745,7 @@
       <c r="E82" s="10">
         <v>152</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="4">
         <v>139</v>
       </c>
       <c r="G82" s="15"/>
@@ -8970,161 +11766,462 @@
       <c r="E83" s="10">
         <v>112</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="4">
         <v>102</v>
       </c>
       <c r="G83" s="15"/>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="37"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="38"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="39"/>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B90" s="9">
-        <v>5688</v>
+      <c r="B90" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="B91" s="9">
-        <v>1231</v>
+        <v>730</v>
+      </c>
+      <c r="C91" s="9">
+        <v>713</v>
+      </c>
+      <c r="D91" s="9">
+        <v>1116</v>
+      </c>
+      <c r="E91" s="9">
+        <v>572</v>
+      </c>
+      <c r="F91" s="9">
+        <v>771</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="B92" s="9">
-        <v>571</v>
+        <v>63</v>
+      </c>
+      <c r="C92" s="9">
+        <v>499</v>
+      </c>
+      <c r="D92" s="9">
+        <v>841</v>
+      </c>
+      <c r="E92" s="9">
+        <v>532</v>
+      </c>
+      <c r="F92" s="9">
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B93" s="9">
-        <v>261</v>
+        <v>43</v>
+      </c>
+      <c r="C93" s="9">
+        <v>504</v>
+      </c>
+      <c r="D93" s="9">
+        <v>484</v>
+      </c>
+      <c r="E93" s="9">
+        <v>330</v>
+      </c>
+      <c r="F93" s="9">
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B94" s="9">
+        <v>10</v>
+      </c>
+      <c r="C94" s="9">
+        <v>208</v>
+      </c>
+      <c r="D94" s="9">
+        <v>230</v>
+      </c>
+      <c r="E94" s="9">
+        <v>178</v>
+      </c>
+      <c r="F94" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>30000</v>
       </c>
-      <c r="B94" s="9">
-        <v>161</v>
+      <c r="B95" s="9">
+        <v>2</v>
+      </c>
+      <c r="C95" s="9">
+        <v>250</v>
+      </c>
+      <c r="D95" s="9">
+        <v>226</v>
+      </c>
+      <c r="E95" s="9">
+        <v>181</v>
+      </c>
+      <c r="F95" s="9">
+        <v>283</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="15"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="15"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="15"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="15"/>
+    </row>
+    <row r="103" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="42"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="47"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="48"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="19">
         <v>2</v>
       </c>
-      <c r="B107" s="9">
-        <v>558</v>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>771</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1398</v>
+      </c>
+      <c r="E107" s="4">
+        <v>732</v>
+      </c>
+      <c r="F107" s="21">
+        <v>853</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="19">
         <v>3</v>
       </c>
-      <c r="B108" s="9">
-        <v>536</v>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4">
+        <v>758</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1310</v>
+      </c>
+      <c r="E108" s="4">
+        <v>603</v>
+      </c>
+      <c r="F108" s="21">
+        <v>815</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="19">
         <v>4</v>
       </c>
-      <c r="B109" s="9">
-        <v>541</v>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>755</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1179</v>
+      </c>
+      <c r="E109" s="4">
+        <v>596</v>
+      </c>
+      <c r="F109" s="21">
+        <v>820</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="19">
         <v>5</v>
       </c>
-      <c r="B110" s="9">
-        <v>568</v>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>745</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1280</v>
+      </c>
+      <c r="E110" s="4">
+        <v>587</v>
+      </c>
+      <c r="F110" s="21">
+        <v>812</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="19">
         <v>6</v>
       </c>
-      <c r="B111" s="9">
-        <v>563</v>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>742</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1284</v>
+      </c>
+      <c r="E111" s="4">
+        <v>590</v>
+      </c>
+      <c r="F111" s="21">
+        <v>814</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="19">
         <v>7</v>
       </c>
-      <c r="B112" s="9">
-        <v>568</v>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>795</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1169</v>
+      </c>
+      <c r="E112" s="4">
+        <v>588</v>
+      </c>
+      <c r="F112" s="21">
+        <v>815</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="19">
         <v>8</v>
       </c>
-      <c r="B113" s="9">
-        <v>573</v>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>747</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1196</v>
+      </c>
+      <c r="E113" s="4">
+        <v>578</v>
+      </c>
+      <c r="F113" s="21">
+        <v>812</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="19">
         <v>9</v>
       </c>
-      <c r="B114" s="16">
-        <v>541</v>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>755</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1327</v>
+      </c>
+      <c r="E114" s="4">
+        <v>591</v>
+      </c>
+      <c r="F114" s="22">
+        <v>819</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="18">
-        <v>8</v>
-      </c>
+      <c r="B115" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="23"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="15"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="15"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="15"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="15"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="15"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" s="15"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="15"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="17"/>
+      <c r="F123" s="15"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="17"/>
+      <c r="F124" s="15"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="17"/>
+      <c r="F125" s="15"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="17"/>
+      <c r="F126" s="24"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A104:F105"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A76:F77"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F89"/>
+    <mergeCell ref="A103:F103"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/docs/research/experiments.xlsx
+++ b/docs/research/experiments.xlsx
@@ -394,51 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +417,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203626472"/>
-        <c:axId val="203627888"/>
+        <c:axId val="366960352"/>
+        <c:axId val="366959568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203626472"/>
+        <c:axId val="366960352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,12 +1223,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203627888"/>
+        <c:crossAx val="366959568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203627888"/>
+        <c:axId val="366959568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1348,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203626472"/>
+        <c:crossAx val="366960352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2109,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203947696"/>
-        <c:axId val="203945736"/>
+        <c:axId val="366959960"/>
+        <c:axId val="366958392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203947696"/>
+        <c:axId val="366959960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,12 +2235,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203945736"/>
+        <c:crossAx val="366958392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203945736"/>
+        <c:axId val="366958392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203947696"/>
+        <c:crossAx val="366959960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2909,11 +2909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203944560"/>
-        <c:axId val="203944952"/>
+        <c:axId val="366962704"/>
+        <c:axId val="366964272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203944560"/>
+        <c:axId val="366962704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,12 +3031,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203944952"/>
+        <c:crossAx val="366964272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203944952"/>
+        <c:axId val="366964272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,7 +3154,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203944560"/>
+        <c:crossAx val="366962704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3704,11 +3704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203946128"/>
-        <c:axId val="203946912"/>
+        <c:axId val="415559112"/>
+        <c:axId val="415552840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203946128"/>
+        <c:axId val="415559112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,12 +3826,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203946912"/>
+        <c:crossAx val="415552840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203946912"/>
+        <c:axId val="415552840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3949,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203946128"/>
+        <c:crossAx val="415559112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4202,11 +4202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204453200"/>
-        <c:axId val="204453592"/>
+        <c:axId val="415559504"/>
+        <c:axId val="415556760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204453200"/>
+        <c:axId val="415559504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,12 +4319,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204453592"/>
+        <c:crossAx val="415556760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204453592"/>
+        <c:axId val="415556760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,7 +4437,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204453200"/>
+        <c:crossAx val="415559504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4581,21 +4581,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>000 ЧАСТИЦ </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>(РАСПАРАЛЛЕЛЕННЫЕ АЛГОРИТМЫ)</a:t>
+              <a:t>000 ЧАСТИЦ (РАСПАРАЛЛЕЛЕННЫЕ АЛГОРИТМЫ)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4614,16 +4600,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -5456,11 +5439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393573688"/>
-        <c:axId val="393574080"/>
+        <c:axId val="415554016"/>
+        <c:axId val="415560288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393573688"/>
+        <c:axId val="415554016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5573,12 +5556,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393574080"/>
+        <c:crossAx val="415560288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393574080"/>
+        <c:axId val="415560288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200"/>
@@ -5698,7 +5681,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393573688"/>
+        <c:crossAx val="415554016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6272,11 +6255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396805064"/>
-        <c:axId val="495114040"/>
+        <c:axId val="415553624"/>
+        <c:axId val="415555584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396805064"/>
+        <c:axId val="415553624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,12 +6377,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495114040"/>
+        <c:crossAx val="415555584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495114040"/>
+        <c:axId val="415555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -6514,7 +6497,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396805064"/>
+        <c:crossAx val="415553624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10964,7 +10947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10977,14 +10960,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -11264,14 +11247,14 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
@@ -11392,14 +11375,14 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -11629,22 +11612,22 @@
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="37"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="44"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="39"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="47"/>
     </row>
     <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -11773,32 +11756,32 @@
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="37"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="44"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="39"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="47"/>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
@@ -11939,47 +11922,47 @@
       <c r="F102" s="15"/>
     </row>
     <row r="103" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="42"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="47"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="32"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="48"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="50"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="35"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="44" t="s">
+      <c r="D106" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="E106" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F106" s="27" t="s">
